--- a/Additional Materials.xlsx
+++ b/Additional Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4738" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9A6F9DF-2B38-4789-9D14-C11F12280892}"/>
+  <xr:revisionPtr revIDLastSave="4899" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CED60EC-95E2-4F6C-B1F5-824653E8AACE}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="-11955" windowWidth="21600" windowHeight="11160" activeTab="2" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <sheet name="AMQ42" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Main!$S$17:$T$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Main!$B$20:$C$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2044" uniqueCount="1267">
   <si>
     <t>Main</t>
   </si>
@@ -3952,6 +3952,12 @@
   </si>
   <si>
     <t>WSE 1 done</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -4392,12 +4398,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4430,12 +4430,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -4677,16 +4693,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6019,28 +6025,28 @@
       <c r="G53" s="83"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="85"/>
-      <c r="E57" s="86" t="s">
+      <c r="D57" s="97"/>
+      <c r="E57" s="84" t="s">
         <v>1179</v>
       </c>
-      <c r="F57" s="86" t="s">
+      <c r="F57" s="84" t="s">
         <v>1180</v>
       </c>
-      <c r="G57" s="87" t="s">
+      <c r="G57" s="85" t="s">
         <v>1181</v>
       </c>
-      <c r="H57" s="88" t="s">
+      <c r="H57" s="86" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="89" t="s">
+      <c r="C58" s="87" t="s">
         <v>1183</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="88" t="s">
         <v>1184</v>
       </c>
       <c r="E58" s="71" t="s">
@@ -6049,16 +6055,16 @@
       <c r="F58" s="71" t="s">
         <v>1137</v>
       </c>
-      <c r="G58" s="91" t="s">
+      <c r="G58" s="89" t="s">
         <v>1140</v>
       </c>
-      <c r="H58" s="92"/>
+      <c r="H58" s="90"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C59" s="70" t="s">
         <v>1186</v>
       </c>
-      <c r="D59" s="93" t="s">
+      <c r="D59" s="91" t="s">
         <v>1187</v>
       </c>
       <c r="E59" s="73" t="s">
@@ -6067,16 +6073,16 @@
       <c r="F59" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G59" s="94" t="s">
+      <c r="G59" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H59" s="92"/>
+      <c r="H59" s="90"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" s="70" t="s">
         <v>1188</v>
       </c>
-      <c r="D60" s="93" t="s">
+      <c r="D60" s="91" t="s">
         <v>1189</v>
       </c>
       <c r="E60" s="73" t="s">
@@ -6085,16 +6091,16 @@
       <c r="F60" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G60" s="94" t="s">
+      <c r="G60" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H60" s="92"/>
+      <c r="H60" s="90"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C61" s="70" t="s">
         <v>1190</v>
       </c>
-      <c r="D61" s="93" t="s">
+      <c r="D61" s="91" t="s">
         <v>1191</v>
       </c>
       <c r="E61" s="73" t="s">
@@ -6103,16 +6109,16 @@
       <c r="F61" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G61" s="94" t="s">
+      <c r="G61" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H61" s="92"/>
+      <c r="H61" s="90"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C62" s="70" t="s">
         <v>1193</v>
       </c>
-      <c r="D62" s="93" t="s">
+      <c r="D62" s="91" t="s">
         <v>1194</v>
       </c>
       <c r="E62" s="73">
@@ -6121,16 +6127,16 @@
       <c r="F62" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G62" s="94" t="s">
+      <c r="G62" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H62" s="92"/>
+      <c r="H62" s="90"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C63" s="70" t="s">
         <v>1195</v>
       </c>
-      <c r="D63" s="93" t="s">
+      <c r="D63" s="91" t="s">
         <v>1196</v>
       </c>
       <c r="E63" s="73">
@@ -6139,16 +6145,16 @@
       <c r="F63" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G63" s="94" t="s">
+      <c r="G63" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H63" s="92"/>
+      <c r="H63" s="90"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C64" s="70" t="s">
         <v>1197</v>
       </c>
-      <c r="D64" s="93" t="s">
+      <c r="D64" s="91" t="s">
         <v>1198</v>
       </c>
       <c r="E64" s="73">
@@ -6157,16 +6163,16 @@
       <c r="F64" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G64" s="94" t="s">
+      <c r="G64" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H64" s="92"/>
+      <c r="H64" s="90"/>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="70" t="s">
         <v>1199</v>
       </c>
-      <c r="D65" s="93" t="s">
+      <c r="D65" s="91" t="s">
         <v>1200</v>
       </c>
       <c r="E65" s="73">
@@ -6175,16 +6181,16 @@
       <c r="F65" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G65" s="94" t="s">
+      <c r="G65" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H65" s="92"/>
+      <c r="H65" s="90"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="70" t="s">
         <v>1201</v>
       </c>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="91" t="s">
         <v>1202</v>
       </c>
       <c r="E66" s="73">
@@ -6193,16 +6199,16 @@
       <c r="F66" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G66" s="94" t="s">
+      <c r="G66" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H66" s="92"/>
+      <c r="H66" s="90"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="70" t="s">
         <v>1203</v>
       </c>
-      <c r="D67" s="93" t="s">
+      <c r="D67" s="91" t="s">
         <v>131</v>
       </c>
       <c r="E67" s="73">
@@ -6211,16 +6217,16 @@
       <c r="F67" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G67" s="94" t="s">
+      <c r="G67" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H67" s="92"/>
+      <c r="H67" s="90"/>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="70" t="s">
         <v>1204</v>
       </c>
-      <c r="D68" s="93" t="s">
+      <c r="D68" s="91" t="s">
         <v>978</v>
       </c>
       <c r="E68" s="73">
@@ -6229,16 +6235,16 @@
       <c r="F68" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G68" s="94" t="s">
+      <c r="G68" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="H68" s="92"/>
+      <c r="H68" s="90"/>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="70" t="s">
         <v>1205</v>
       </c>
-      <c r="D69" s="93" t="s">
+      <c r="D69" s="91" t="s">
         <v>1206</v>
       </c>
       <c r="E69" s="73">
@@ -6247,16 +6253,16 @@
       <c r="F69" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G69" s="94" t="s">
+      <c r="G69" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H69" s="92"/>
+      <c r="H69" s="90"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="70" t="s">
         <v>1207</v>
       </c>
-      <c r="D70" s="93" t="s">
+      <c r="D70" s="91" t="s">
         <v>1208</v>
       </c>
       <c r="E70" s="73">
@@ -6265,16 +6271,16 @@
       <c r="F70" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G70" s="94" t="s">
+      <c r="G70" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H70" s="92"/>
+      <c r="H70" s="90"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="70" t="s">
         <v>1209</v>
       </c>
-      <c r="D71" s="93" t="s">
+      <c r="D71" s="91" t="s">
         <v>1210</v>
       </c>
       <c r="E71" s="73">
@@ -6283,16 +6289,16 @@
       <c r="F71" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G71" s="94" t="s">
+      <c r="G71" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H71" s="92"/>
+      <c r="H71" s="90"/>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="70" t="s">
         <v>1211</v>
       </c>
-      <c r="D72" s="93" t="s">
+      <c r="D72" s="91" t="s">
         <v>1212</v>
       </c>
       <c r="E72" s="73" t="s">
@@ -6301,16 +6307,16 @@
       <c r="F72" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G72" s="94" t="s">
+      <c r="G72" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H72" s="92"/>
+      <c r="H72" s="90"/>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="70" t="s">
         <v>1213</v>
       </c>
-      <c r="D73" s="93" t="s">
+      <c r="D73" s="91" t="s">
         <v>1214</v>
       </c>
       <c r="E73" s="73" t="s">
@@ -6319,10 +6325,10 @@
       <c r="F73" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G73" s="94" t="s">
+      <c r="G73" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H73" s="92" t="s">
+      <c r="H73" s="90" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -6330,7 +6336,7 @@
       <c r="C74" s="70" t="s">
         <v>1216</v>
       </c>
-      <c r="D74" s="93" t="s">
+      <c r="D74" s="91" t="s">
         <v>1217</v>
       </c>
       <c r="E74" s="73" t="s">
@@ -6339,10 +6345,10 @@
       <c r="F74" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G74" s="94" t="s">
+      <c r="G74" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H74" s="92" t="s">
+      <c r="H74" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -6350,7 +6356,7 @@
       <c r="C75" s="70" t="s">
         <v>1219</v>
       </c>
-      <c r="D75" s="93" t="s">
+      <c r="D75" s="91" t="s">
         <v>1220</v>
       </c>
       <c r="E75" s="73" t="s">
@@ -6359,10 +6365,10 @@
       <c r="F75" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G75" s="94" t="s">
+      <c r="G75" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H75" s="92" t="s">
+      <c r="H75" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -6370,7 +6376,7 @@
       <c r="C76" s="70" t="s">
         <v>1221</v>
       </c>
-      <c r="D76" s="93" t="s">
+      <c r="D76" s="91" t="s">
         <v>1222</v>
       </c>
       <c r="E76" s="73" t="s">
@@ -6379,10 +6385,10 @@
       <c r="F76" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G76" s="94" t="s">
+      <c r="G76" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H76" s="92" t="s">
+      <c r="H76" s="90" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6390,7 +6396,7 @@
       <c r="C77" s="70" t="s">
         <v>1224</v>
       </c>
-      <c r="D77" s="93" t="s">
+      <c r="D77" s="91" t="s">
         <v>1225</v>
       </c>
       <c r="E77" s="73">
@@ -6399,16 +6405,16 @@
       <c r="F77" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G77" s="94" t="s">
+      <c r="G77" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H77" s="92"/>
+      <c r="H77" s="90"/>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="70" t="s">
         <v>1226</v>
       </c>
-      <c r="D78" s="93" t="s">
+      <c r="D78" s="91" t="s">
         <v>1227</v>
       </c>
       <c r="E78" s="73" t="s">
@@ -6417,16 +6423,16 @@
       <c r="F78" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G78" s="94" t="s">
+      <c r="G78" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H78" s="92"/>
+      <c r="H78" s="90"/>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="70" t="s">
         <v>1228</v>
       </c>
-      <c r="D79" s="93" t="s">
+      <c r="D79" s="91" t="s">
         <v>1229</v>
       </c>
       <c r="E79" s="73" t="s">
@@ -6435,10 +6441,10 @@
       <c r="F79" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G79" s="94" t="s">
+      <c r="G79" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H79" s="92" t="s">
+      <c r="H79" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -6446,7 +6452,7 @@
       <c r="C80" s="70" t="s">
         <v>1231</v>
       </c>
-      <c r="D80" s="93" t="s">
+      <c r="D80" s="91" t="s">
         <v>1232</v>
       </c>
       <c r="E80" s="73">
@@ -6455,16 +6461,16 @@
       <c r="F80" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G80" s="94" t="s">
+      <c r="G80" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H80" s="92"/>
+      <c r="H80" s="90"/>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="70" t="s">
         <v>1233</v>
       </c>
-      <c r="D81" s="93" t="s">
+      <c r="D81" s="91" t="s">
         <v>1234</v>
       </c>
       <c r="E81" s="73">
@@ -6473,16 +6479,16 @@
       <c r="F81" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G81" s="94" t="s">
+      <c r="G81" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H81" s="92"/>
+      <c r="H81" s="90"/>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="70" t="s">
         <v>1235</v>
       </c>
-      <c r="D82" s="93" t="s">
+      <c r="D82" s="91" t="s">
         <v>1236</v>
       </c>
       <c r="E82" s="73" t="s">
@@ -6491,10 +6497,10 @@
       <c r="F82" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G82" s="94" t="s">
+      <c r="G82" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H82" s="92" t="s">
+      <c r="H82" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -6502,7 +6508,7 @@
       <c r="C83" s="70" t="s">
         <v>1237</v>
       </c>
-      <c r="D83" s="93" t="s">
+      <c r="D83" s="91" t="s">
         <v>1238</v>
       </c>
       <c r="E83" s="73">
@@ -6511,16 +6517,16 @@
       <c r="F83" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G83" s="94" t="s">
+      <c r="G83" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H83" s="92"/>
+      <c r="H83" s="90"/>
     </row>
     <row r="84" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C84" s="70" t="s">
         <v>1239</v>
       </c>
-      <c r="D84" s="93" t="s">
+      <c r="D84" s="91" t="s">
         <v>1240</v>
       </c>
       <c r="E84" s="73">
@@ -6529,16 +6535,16 @@
       <c r="F84" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G84" s="94" t="s">
+      <c r="G84" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H84" s="92"/>
+      <c r="H84" s="90"/>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="70" t="s">
         <v>1241</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="91" t="s">
         <v>1242</v>
       </c>
       <c r="E85" s="73">
@@ -6547,16 +6553,16 @@
       <c r="F85" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="G85" s="94" t="s">
+      <c r="G85" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H85" s="92"/>
+      <c r="H85" s="90"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="70" t="s">
         <v>1243</v>
       </c>
-      <c r="D86" s="93" t="s">
+      <c r="D86" s="91" t="s">
         <v>1244</v>
       </c>
       <c r="E86" s="73">
@@ -6565,10 +6571,10 @@
       <c r="F86" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G86" s="94" t="s">
+      <c r="G86" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H86" s="92" t="s">
+      <c r="H86" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -6576,7 +6582,7 @@
       <c r="C87" s="70" t="s">
         <v>1245</v>
       </c>
-      <c r="D87" s="93" t="s">
+      <c r="D87" s="91" t="s">
         <v>1246</v>
       </c>
       <c r="E87" s="73" t="s">
@@ -6585,16 +6591,16 @@
       <c r="F87" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G87" s="94" t="s">
+      <c r="G87" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H87" s="92"/>
+      <c r="H87" s="90"/>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="70" t="s">
         <v>1248</v>
       </c>
-      <c r="D88" s="93" t="s">
+      <c r="D88" s="91" t="s">
         <v>1249</v>
       </c>
       <c r="E88" s="73">
@@ -6603,16 +6609,16 @@
       <c r="F88" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G88" s="94" t="s">
+      <c r="G88" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H88" s="92"/>
+      <c r="H88" s="90"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="70" t="s">
         <v>1250</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="91" t="s">
         <v>1251</v>
       </c>
       <c r="E89" s="73" t="s">
@@ -6621,16 +6627,16 @@
       <c r="F89" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G89" s="94" t="s">
+      <c r="G89" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H89" s="92"/>
+      <c r="H89" s="90"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="70" t="s">
         <v>1252</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="91" t="s">
         <v>1253</v>
       </c>
       <c r="E90" s="73" t="s">
@@ -6639,16 +6645,16 @@
       <c r="F90" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G90" s="94" t="s">
+      <c r="G90" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H90" s="92"/>
+      <c r="H90" s="90"/>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="70" t="s">
         <v>1254</v>
       </c>
-      <c r="D91" s="93" t="s">
+      <c r="D91" s="91" t="s">
         <v>1255</v>
       </c>
       <c r="E91" s="73" t="s">
@@ -6657,16 +6663,16 @@
       <c r="F91" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G91" s="94" t="s">
+      <c r="G91" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H91" s="92"/>
+      <c r="H91" s="90"/>
     </row>
     <row r="92" spans="3:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C92" s="70" t="s">
         <v>1256</v>
       </c>
-      <c r="D92" s="93" t="s">
+      <c r="D92" s="91" t="s">
         <v>1257</v>
       </c>
       <c r="E92" s="73" t="s">
@@ -6675,10 +6681,10 @@
       <c r="F92" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="G92" s="94" t="s">
+      <c r="G92" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="H92" s="92" t="s">
+      <c r="H92" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -6686,7 +6692,7 @@
       <c r="C93" s="70" t="s">
         <v>1258</v>
       </c>
-      <c r="D93" s="93" t="s">
+      <c r="D93" s="91" t="s">
         <v>1259</v>
       </c>
       <c r="E93" s="73" t="s">
@@ -6695,16 +6701,16 @@
       <c r="F93" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="G93" s="94" t="s">
+      <c r="G93" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="H93" s="92"/>
+      <c r="H93" s="90"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="79" t="s">
         <v>1260</v>
       </c>
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="93" t="s">
         <v>1261</v>
       </c>
       <c r="E94" s="80" t="s">
@@ -6713,10 +6719,10 @@
       <c r="F94" s="80" t="s">
         <v>1138</v>
       </c>
-      <c r="G94" s="96" t="s">
+      <c r="G94" s="94" t="s">
         <v>1138</v>
       </c>
-      <c r="H94" s="97" t="s">
+      <c r="H94" s="95" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -6725,64 +6731,64 @@
     <mergeCell ref="C57:D57"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C53">
-    <cfRule type="containsText" dxfId="23" priority="13" stopIfTrue="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="24" priority="13" stopIfTrue="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="14" stopIfTrue="1" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="23" priority="14" stopIfTrue="1" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="15" stopIfTrue="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="22" priority="15" stopIfTrue="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="16" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E53">
-    <cfRule type="containsText" dxfId="17" priority="7" stopIfTrue="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="18" priority="7" stopIfTrue="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="8" stopIfTrue="1" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="17" priority="8" stopIfTrue="1" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="9" stopIfTrue="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="9" stopIfTrue="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:G94">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:G94">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13140,28 +13146,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="84" t="s">
         <v>1179</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="84" t="s">
         <v>1180</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="85" t="s">
         <v>1181</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="86" t="s">
         <v>1182</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="87" t="s">
         <v>1183</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="88" t="s">
         <v>1184</v>
       </c>
       <c r="D3" s="71" t="s">
@@ -13170,16 +13176,16 @@
       <c r="E3" s="71" t="s">
         <v>1137</v>
       </c>
-      <c r="F3" s="91" t="s">
+      <c r="F3" s="89" t="s">
         <v>1140</v>
       </c>
-      <c r="G3" s="92"/>
+      <c r="G3" s="90"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="70" t="s">
         <v>1186</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="91" t="s">
         <v>1187</v>
       </c>
       <c r="D4" s="73" t="s">
@@ -13188,16 +13194,16 @@
       <c r="E4" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G4" s="92"/>
+      <c r="G4" s="90"/>
     </row>
     <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="70" t="s">
         <v>1188</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="91" t="s">
         <v>1189</v>
       </c>
       <c r="D5" s="73" t="s">
@@ -13206,16 +13212,16 @@
       <c r="E5" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G5" s="92"/>
+      <c r="G5" s="90"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="70" t="s">
         <v>1190</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="91" t="s">
         <v>1191</v>
       </c>
       <c r="D6" s="73" t="s">
@@ -13224,16 +13230,16 @@
       <c r="E6" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="90"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="70" t="s">
         <v>1193</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="91" t="s">
         <v>1194</v>
       </c>
       <c r="D7" s="73">
@@ -13242,10 +13248,10 @@
       <c r="E7" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="90" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -13253,7 +13259,7 @@
       <c r="B8" s="70" t="s">
         <v>1195</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="91" t="s">
         <v>1196</v>
       </c>
       <c r="D8" s="73">
@@ -13262,16 +13268,16 @@
       <c r="E8" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="90"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="70" t="s">
         <v>1197</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="91" t="s">
         <v>1198</v>
       </c>
       <c r="D9" s="73">
@@ -13280,16 +13286,16 @@
       <c r="E9" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F9" s="94" t="s">
+      <c r="F9" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G9" s="92"/>
+      <c r="G9" s="90"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="70" t="s">
         <v>1199</v>
       </c>
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="91" t="s">
         <v>1200</v>
       </c>
       <c r="D10" s="73">
@@ -13298,16 +13304,16 @@
       <c r="E10" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G10" s="92"/>
+      <c r="G10" s="90"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="70" t="s">
         <v>1201</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="91" t="s">
         <v>1202</v>
       </c>
       <c r="D11" s="73">
@@ -13316,16 +13322,16 @@
       <c r="E11" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G11" s="92"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="70" t="s">
         <v>1203</v>
       </c>
-      <c r="C12" s="93" t="s">
+      <c r="C12" s="91" t="s">
         <v>131</v>
       </c>
       <c r="D12" s="73">
@@ -13334,10 +13340,10 @@
       <c r="E12" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F12" s="94" t="s">
+      <c r="F12" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="90" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -13345,7 +13351,7 @@
       <c r="B13" s="70" t="s">
         <v>1204</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="91" t="s">
         <v>978</v>
       </c>
       <c r="D13" s="73">
@@ -13354,10 +13360,10 @@
       <c r="E13" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="92" t="s">
         <v>1140</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="90" t="s">
         <v>1264</v>
       </c>
     </row>
@@ -13365,7 +13371,7 @@
       <c r="B14" s="70" t="s">
         <v>1205</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="91" t="s">
         <v>1206</v>
       </c>
       <c r="D14" s="73">
@@ -13374,16 +13380,16 @@
       <c r="E14" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G14" s="92"/>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="70" t="s">
         <v>1207</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="91" t="s">
         <v>1208</v>
       </c>
       <c r="D15" s="73">
@@ -13392,16 +13398,16 @@
       <c r="E15" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F15" s="94" t="s">
+      <c r="F15" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G15" s="92"/>
+      <c r="G15" s="90"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="70" t="s">
         <v>1209</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="91" t="s">
         <v>1210</v>
       </c>
       <c r="D16" s="73">
@@ -13410,16 +13416,16 @@
       <c r="E16" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F16" s="94" t="s">
+      <c r="F16" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G16" s="92"/>
+      <c r="G16" s="90"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="70" t="s">
         <v>1211</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="91" t="s">
         <v>1212</v>
       </c>
       <c r="D17" s="73" t="s">
@@ -13428,16 +13434,16 @@
       <c r="E17" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G17" s="92"/>
+      <c r="G17" s="90"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="70" t="s">
         <v>1213</v>
       </c>
-      <c r="C18" s="93" t="s">
+      <c r="C18" s="91" t="s">
         <v>1214</v>
       </c>
       <c r="D18" s="73" t="s">
@@ -13446,10 +13452,10 @@
       <c r="E18" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G18" s="92" t="s">
+      <c r="G18" s="90" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -13457,7 +13463,7 @@
       <c r="B19" s="70" t="s">
         <v>1216</v>
       </c>
-      <c r="C19" s="93" t="s">
+      <c r="C19" s="91" t="s">
         <v>1217</v>
       </c>
       <c r="D19" s="73" t="s">
@@ -13466,10 +13472,10 @@
       <c r="E19" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13477,7 +13483,7 @@
       <c r="B20" s="70" t="s">
         <v>1219</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="91" t="s">
         <v>1220</v>
       </c>
       <c r="D20" s="73" t="s">
@@ -13486,10 +13492,10 @@
       <c r="E20" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F20" s="94" t="s">
+      <c r="F20" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G20" s="92" t="s">
+      <c r="G20" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13497,7 +13503,7 @@
       <c r="B21" s="70" t="s">
         <v>1221</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="91" t="s">
         <v>1222</v>
       </c>
       <c r="D21" s="73" t="s">
@@ -13506,10 +13512,10 @@
       <c r="E21" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F21" s="94" t="s">
+      <c r="F21" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G21" s="92" t="s">
+      <c r="G21" s="90" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -13517,7 +13523,7 @@
       <c r="B22" s="70" t="s">
         <v>1224</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="91" t="s">
         <v>1225</v>
       </c>
       <c r="D22" s="73">
@@ -13526,16 +13532,16 @@
       <c r="E22" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G22" s="92"/>
+      <c r="G22" s="90"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="70" t="s">
         <v>1226</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="91" t="s">
         <v>1227</v>
       </c>
       <c r="D23" s="73" t="s">
@@ -13544,16 +13550,16 @@
       <c r="E23" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F23" s="94" t="s">
+      <c r="F23" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G23" s="92"/>
+      <c r="G23" s="90"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="70" t="s">
         <v>1228</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="91" t="s">
         <v>1229</v>
       </c>
       <c r="D24" s="73" t="s">
@@ -13562,10 +13568,10 @@
       <c r="E24" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G24" s="92" t="s">
+      <c r="G24" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -13573,7 +13579,7 @@
       <c r="B25" s="70" t="s">
         <v>1231</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="91" t="s">
         <v>1232</v>
       </c>
       <c r="D25" s="73">
@@ -13582,16 +13588,16 @@
       <c r="E25" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G25" s="92"/>
+      <c r="G25" s="90"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="70" t="s">
         <v>1233</v>
       </c>
-      <c r="C26" s="93" t="s">
+      <c r="C26" s="91" t="s">
         <v>1234</v>
       </c>
       <c r="D26" s="73">
@@ -13600,16 +13606,16 @@
       <c r="E26" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G26" s="92"/>
+      <c r="G26" s="90"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="70" t="s">
         <v>1235</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="91" t="s">
         <v>1236</v>
       </c>
       <c r="D27" s="73" t="s">
@@ -13618,10 +13624,10 @@
       <c r="E27" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F27" s="94" t="s">
+      <c r="F27" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G27" s="92" t="s">
+      <c r="G27" s="90" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13629,7 +13635,7 @@
       <c r="B28" s="70" t="s">
         <v>1237</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="91" t="s">
         <v>1238</v>
       </c>
       <c r="D28" s="73">
@@ -13638,16 +13644,16 @@
       <c r="E28" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G28" s="92"/>
+      <c r="G28" s="90"/>
     </row>
     <row r="29" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="70" t="s">
         <v>1239</v>
       </c>
-      <c r="C29" s="93" t="s">
+      <c r="C29" s="91" t="s">
         <v>1240</v>
       </c>
       <c r="D29" s="73">
@@ -13656,16 +13662,16 @@
       <c r="E29" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F29" s="94" t="s">
+      <c r="F29" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G29" s="92"/>
+      <c r="G29" s="90"/>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="70" t="s">
         <v>1241</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="91" t="s">
         <v>1242</v>
       </c>
       <c r="D30" s="73">
@@ -13674,16 +13680,16 @@
       <c r="E30" s="73" t="s">
         <v>1140</v>
       </c>
-      <c r="F30" s="94" t="s">
+      <c r="F30" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G30" s="92"/>
+      <c r="G30" s="90"/>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="70" t="s">
         <v>1243</v>
       </c>
-      <c r="C31" s="93" t="s">
+      <c r="C31" s="91" t="s">
         <v>1244</v>
       </c>
       <c r="D31" s="73">
@@ -13692,10 +13698,10 @@
       <c r="E31" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F31" s="94" t="s">
+      <c r="F31" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G31" s="92" t="s">
+      <c r="G31" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -13703,7 +13709,7 @@
       <c r="B32" s="70" t="s">
         <v>1245</v>
       </c>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="91" t="s">
         <v>1246</v>
       </c>
       <c r="D32" s="73" t="s">
@@ -13712,16 +13718,16 @@
       <c r="E32" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G32" s="92"/>
+      <c r="G32" s="90"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="70" t="s">
         <v>1248</v>
       </c>
-      <c r="C33" s="93" t="s">
+      <c r="C33" s="91" t="s">
         <v>1249</v>
       </c>
       <c r="D33" s="73">
@@ -13730,16 +13736,16 @@
       <c r="E33" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G33" s="92"/>
+      <c r="G33" s="90"/>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="70" t="s">
         <v>1250</v>
       </c>
-      <c r="C34" s="93" t="s">
+      <c r="C34" s="91" t="s">
         <v>1251</v>
       </c>
       <c r="D34" s="73" t="s">
@@ -13748,16 +13754,16 @@
       <c r="E34" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F34" s="94" t="s">
+      <c r="F34" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G34" s="92"/>
+      <c r="G34" s="90"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="70" t="s">
         <v>1252</v>
       </c>
-      <c r="C35" s="93" t="s">
+      <c r="C35" s="91" t="s">
         <v>1253</v>
       </c>
       <c r="D35" s="73" t="s">
@@ -13766,16 +13772,16 @@
       <c r="E35" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F35" s="94" t="s">
+      <c r="F35" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G35" s="92"/>
+      <c r="G35" s="90"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="70" t="s">
         <v>1254</v>
       </c>
-      <c r="C36" s="93" t="s">
+      <c r="C36" s="91" t="s">
         <v>1255</v>
       </c>
       <c r="D36" s="73" t="s">
@@ -13784,16 +13790,16 @@
       <c r="E36" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F36" s="94" t="s">
+      <c r="F36" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G36" s="92"/>
+      <c r="G36" s="90"/>
     </row>
     <row r="37" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" s="70" t="s">
         <v>1256</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="91" t="s">
         <v>1257</v>
       </c>
       <c r="D37" s="73" t="s">
@@ -13802,10 +13808,10 @@
       <c r="E37" s="73" t="s">
         <v>1138</v>
       </c>
-      <c r="F37" s="94" t="s">
+      <c r="F37" s="92" t="s">
         <v>1138</v>
       </c>
-      <c r="G37" s="92" t="s">
+      <c r="G37" s="90" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -13813,7 +13819,7 @@
       <c r="B38" s="70" t="s">
         <v>1258</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="91" t="s">
         <v>1259</v>
       </c>
       <c r="D38" s="73" t="s">
@@ -13822,16 +13828,16 @@
       <c r="E38" s="73" t="s">
         <v>1137</v>
       </c>
-      <c r="F38" s="94" t="s">
+      <c r="F38" s="92" t="s">
         <v>1137</v>
       </c>
-      <c r="G38" s="92"/>
+      <c r="G38" s="90"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="79" t="s">
         <v>1260</v>
       </c>
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="93" t="s">
         <v>1261</v>
       </c>
       <c r="D39" s="80" t="s">
@@ -13840,10 +13846,10 @@
       <c r="E39" s="80" t="s">
         <v>1138</v>
       </c>
-      <c r="F39" s="96" t="s">
+      <c r="F39" s="94" t="s">
         <v>1138</v>
       </c>
-      <c r="G39" s="97" t="s">
+      <c r="G39" s="95" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -13852,24 +13858,24 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:F39">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:F39">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13886,8 +13892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
   <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14159,7 +14165,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G17" s="35"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
@@ -14179,7 +14185,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G18" s="36" t="s">
         <v>185</v>
       </c>
@@ -14210,7 +14216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G19" s="36" t="s">
         <v>150</v>
       </c>
@@ -14235,7 +14241,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1266</v>
+      </c>
       <c r="G20" s="36" t="s">
         <v>151</v>
       </c>
@@ -14268,7 +14281,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21">
+        <v>26</v>
+      </c>
+      <c r="C21" s="22">
+        <f>_xlfn.XLOOKUP(B21,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>3</v>
+      </c>
       <c r="G21" s="36" t="s">
         <v>152</v>
       </c>
@@ -14297,7 +14317,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21">
+        <v>40</v>
+      </c>
+      <c r="C22" s="22">
+        <f>_xlfn.XLOOKUP(B22,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>4</v>
+      </c>
       <c r="G22" s="36" t="s">
         <v>153</v>
       </c>
@@ -14316,14 +14343,21 @@
       <c r="P22" s="37">
         <v>7</v>
       </c>
-      <c r="S22" s="21">
+      <c r="S22" s="62">
         <v>5</v>
       </c>
       <c r="T22" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="21">
+        <v>45</v>
+      </c>
+      <c r="C23" s="22">
+        <f>_xlfn.XLOOKUP(B23,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>4</v>
+      </c>
       <c r="G23" s="36" t="s">
         <v>154</v>
       </c>
@@ -14357,7 +14391,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="21">
+        <v>8</v>
+      </c>
+      <c r="C24" s="22">
+        <f>_xlfn.XLOOKUP(B24,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>6</v>
+      </c>
       <c r="G24" s="36" t="s">
         <v>155</v>
       </c>
@@ -14384,7 +14425,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <v>29</v>
+      </c>
+      <c r="C25" s="22">
+        <f>_xlfn.XLOOKUP(B25,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>6</v>
+      </c>
       <c r="F25" s="60"/>
       <c r="G25" s="36" t="s">
         <v>156</v>
@@ -14410,7 +14458,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="21">
+        <v>48</v>
+      </c>
+      <c r="C26" s="22">
+        <f>_xlfn.XLOOKUP(B26,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>6</v>
+      </c>
       <c r="F26" s="60"/>
       <c r="G26" s="36" t="s">
         <v>157</v>
@@ -14440,7 +14495,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
+        <v>46</v>
+      </c>
+      <c r="C27" s="22">
+        <f>_xlfn.XLOOKUP(B27,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>7</v>
+      </c>
       <c r="F27" s="60"/>
       <c r="G27" s="36" t="s">
         <v>158</v>
@@ -14468,7 +14530,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
+        <v>33</v>
+      </c>
+      <c r="C28" s="22">
+        <f>_xlfn.XLOOKUP(B28,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>9</v>
+      </c>
       <c r="F28" s="60"/>
       <c r="G28" s="36" t="s">
         <v>159</v>
@@ -14491,14 +14560,21 @@
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
-      <c r="S28" s="21">
+      <c r="S28" s="62">
         <v>11</v>
       </c>
       <c r="T28" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="21">
+        <v>36</v>
+      </c>
+      <c r="C29" s="22">
+        <f>_xlfn.XLOOKUP(B29,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>10</v>
+      </c>
       <c r="G29" s="36" t="s">
         <v>160</v>
       </c>
@@ -14525,7 +14601,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="21">
+        <v>12</v>
+      </c>
+      <c r="C30" s="22">
+        <f>_xlfn.XLOOKUP(B30,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>11</v>
+      </c>
       <c r="G30" s="36" t="s">
         <v>161</v>
       </c>
@@ -14552,7 +14635,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="21">
+        <v>15</v>
+      </c>
+      <c r="C31" s="22">
+        <f>_xlfn.XLOOKUP(B31,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>11</v>
+      </c>
       <c r="G31" s="36" t="s">
         <v>162</v>
       </c>
@@ -14566,14 +14656,21 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
-      <c r="S31" s="21">
+      <c r="S31" s="62">
         <v>14</v>
       </c>
       <c r="T31" s="21">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="21">
+        <v>16</v>
+      </c>
+      <c r="C32" s="22">
+        <f>_xlfn.XLOOKUP(B32,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>11</v>
+      </c>
       <c r="G32" s="36" t="s">
         <v>163</v>
       </c>
@@ -14598,7 +14695,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="21">
+        <v>25</v>
+      </c>
+      <c r="C33" s="22">
+        <f>_xlfn.XLOOKUP(B33,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>11</v>
+      </c>
       <c r="G33" s="21" t="s">
         <v>164</v>
       </c>
@@ -14629,7 +14733,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="21">
+        <v>4</v>
+      </c>
+      <c r="C34" s="22">
+        <f>_xlfn.XLOOKUP(B34,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>12</v>
+      </c>
       <c r="G34" s="21" t="s">
         <v>165</v>
       </c>
@@ -14652,7 +14763,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <v>13</v>
+      </c>
+      <c r="C35" s="22">
+        <f>_xlfn.XLOOKUP(B35,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>12</v>
+      </c>
       <c r="G35" s="21" t="s">
         <v>166</v>
       </c>
@@ -14677,8 +14795,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G36" s="62" t="s">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="21">
+        <v>31</v>
+      </c>
+      <c r="C36" s="22">
+        <f>_xlfn.XLOOKUP(B36,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>12</v>
+      </c>
+      <c r="G36" s="36" t="s">
         <v>167</v>
       </c>
       <c r="H36" s="20">
@@ -14698,8 +14823,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G37" s="62" t="s">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="21">
+        <v>47</v>
+      </c>
+      <c r="C37" s="22">
+        <f>_xlfn.XLOOKUP(B37,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>14</v>
+      </c>
+      <c r="G37" s="36" t="s">
         <v>168</v>
       </c>
       <c r="H37" s="20">
@@ -14723,7 +14855,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="21">
+        <v>2</v>
+      </c>
+      <c r="C38" s="22">
+        <f>_xlfn.XLOOKUP(B38,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>16</v>
+      </c>
       <c r="G38" s="21" t="s">
         <v>169</v>
       </c>
@@ -14739,14 +14878,21 @@
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="20"/>
-      <c r="S38" s="21">
+      <c r="S38" s="62">
         <v>21</v>
       </c>
       <c r="T38" s="21">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
+        <v>39</v>
+      </c>
+      <c r="C39" s="22">
+        <f>_xlfn.XLOOKUP(B39,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>16</v>
+      </c>
       <c r="G39" s="36" t="s">
         <v>170</v>
       </c>
@@ -14775,7 +14921,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="21">
+        <v>51</v>
+      </c>
+      <c r="C40" s="22">
+        <f>_xlfn.XLOOKUP(B40,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>16</v>
+      </c>
       <c r="G40" s="36" t="s">
         <v>171</v>
       </c>
@@ -14800,7 +14953,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="21">
+        <v>23</v>
+      </c>
+      <c r="C41" s="22">
+        <f>_xlfn.XLOOKUP(B41,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>18</v>
+      </c>
       <c r="G41" s="36" t="s">
         <v>172</v>
       </c>
@@ -14823,7 +14983,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="21">
+        <v>41</v>
+      </c>
+      <c r="C42" s="22">
+        <f>_xlfn.XLOOKUP(B42,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>22</v>
+      </c>
       <c r="G42" s="21" t="s">
         <v>173</v>
       </c>
@@ -14848,7 +15015,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="21">
+        <v>9</v>
+      </c>
+      <c r="C43" s="22">
+        <f>_xlfn.XLOOKUP(B43,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>24</v>
+      </c>
       <c r="G43" s="36" t="s">
         <v>174</v>
       </c>
@@ -14883,7 +15057,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="21">
+        <v>34</v>
+      </c>
+      <c r="C44" s="22">
+        <f>_xlfn.XLOOKUP(B44,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>24</v>
+      </c>
       <c r="G44" s="36" t="s">
         <v>175</v>
       </c>
@@ -14911,15 +15092,22 @@
       <c r="O44" s="20">
         <v>49</v>
       </c>
-      <c r="S44" s="21">
+      <c r="S44" s="62">
         <v>27</v>
       </c>
       <c r="T44" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G45" s="21" t="s">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <v>49</v>
+      </c>
+      <c r="C45" s="22">
+        <f>_xlfn.XLOOKUP(B45,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>24</v>
+      </c>
+      <c r="G45" s="36" t="s">
         <v>176</v>
       </c>
       <c r="H45" s="20">
@@ -14938,14 +15126,21 @@
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
       <c r="O45" s="20"/>
-      <c r="S45" s="21">
+      <c r="S45" s="62">
         <v>28</v>
       </c>
       <c r="T45" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="21">
+        <v>43</v>
+      </c>
+      <c r="C46" s="22">
+        <f>_xlfn.XLOOKUP(B46,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>30</v>
+      </c>
       <c r="G46" s="36" t="s">
         <v>177</v>
       </c>
@@ -14970,7 +15165,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="7:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B47" s="21">
+        <v>19</v>
+      </c>
+      <c r="C47" s="22">
+        <f>_xlfn.XLOOKUP(B47,$S$18:$S$68,$T$18:$T$68)</f>
+        <v>34</v>
+      </c>
       <c r="G47" s="36" t="s">
         <v>178</v>
       </c>
@@ -14988,15 +15190,15 @@
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
       <c r="O47" s="20"/>
-      <c r="S47" s="21">
+      <c r="S47" s="62">
         <v>30</v>
       </c>
       <c r="T47" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G48" s="62" t="s">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G48" s="36" t="s">
         <v>179</v>
       </c>
       <c r="H48" s="20">
@@ -15036,7 +15238,7 @@
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
       <c r="O49" s="20"/>
-      <c r="S49" s="21">
+      <c r="S49" s="62">
         <v>32</v>
       </c>
       <c r="T49" s="21">
@@ -15044,7 +15246,7 @@
       </c>
     </row>
     <row r="50" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G50" s="62" t="s">
+      <c r="G50" s="36" t="s">
         <v>181</v>
       </c>
       <c r="H50" s="20">
@@ -15097,7 +15299,7 @@
       </c>
     </row>
     <row r="54" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="S54" s="21">
+      <c r="S54" s="62">
         <v>37</v>
       </c>
       <c r="T54" s="21">
@@ -15153,7 +15355,7 @@
       </c>
     </row>
     <row r="61" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="S61" s="21">
+      <c r="S61" s="62">
         <v>44</v>
       </c>
       <c r="T61" s="21">
@@ -15201,7 +15403,7 @@
       </c>
     </row>
     <row r="67" spans="19:20" x14ac:dyDescent="0.25">
-      <c r="S67" s="21">
+      <c r="S67" s="62">
         <v>50</v>
       </c>
       <c r="T67" s="21">
@@ -15217,13 +15419,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="S17:T68" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S18:T68">
-      <sortCondition ref="S17:S68"/>
+  <autoFilter ref="B20:C47" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:C47">
+      <sortCondition ref="C20:C47"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H18:O50">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$P$22</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Additional Materials.xlsx
+++ b/Additional Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4899" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CED60EC-95E2-4F6C-B1F5-824653E8AACE}"/>
+  <xr:revisionPtr revIDLastSave="4901" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{059AE56F-8C68-4D07-8C6C-4DFA23C04169}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14370" activeTab="2" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" r:id="rId1"/>
@@ -13893,7 +13893,7 @@
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13901,7 +13901,7 @@
     <col min="1" max="1" width="9.140625" style="40"/>
     <col min="2" max="2" width="9.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10.85546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="21" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" style="21" customWidth="1"/>
     <col min="8" max="8" width="5.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="15" width="3.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="21"/>
@@ -14283,11 +14283,11 @@
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C21" s="22">
         <f>_xlfn.XLOOKUP(B21,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>152</v>
@@ -14319,11 +14319,11 @@
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C22" s="22">
         <f>_xlfn.XLOOKUP(B22,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>153</v>
@@ -14352,11 +14352,11 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="21">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C23" s="22">
         <f>_xlfn.XLOOKUP(B23,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>154</v>
@@ -14393,11 +14393,11 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" s="22">
         <f>_xlfn.XLOOKUP(B24,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>155</v>
@@ -14427,11 +14427,11 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="21">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C25" s="22">
         <f>_xlfn.XLOOKUP(B25,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="36" t="s">
@@ -14460,11 +14460,11 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="21">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C26" s="22">
         <f>_xlfn.XLOOKUP(B26,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="36" t="s">
@@ -14497,11 +14497,11 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="21">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C27" s="22">
         <f>_xlfn.XLOOKUP(B27,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="36" t="s">
@@ -14532,11 +14532,11 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="21">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C28" s="22">
         <f>_xlfn.XLOOKUP(B28,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="36" t="s">
@@ -14569,11 +14569,11 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C29" s="22">
         <f>_xlfn.XLOOKUP(B29,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>160</v>
@@ -14603,11 +14603,11 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="21">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C30" s="22">
         <f>_xlfn.XLOOKUP(B30,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>161</v>
@@ -14637,7 +14637,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C31" s="22">
         <f>_xlfn.XLOOKUP(B31,$S$18:$S$68,$T$18:$T$68)</f>
@@ -14665,11 +14665,11 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="21">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C32" s="22">
         <f>_xlfn.XLOOKUP(B32,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>163</v>
@@ -14697,11 +14697,11 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="21">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C33" s="22">
         <f>_xlfn.XLOOKUP(B33,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>164</v>
@@ -14735,7 +14735,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="21">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C34" s="22">
         <f>_xlfn.XLOOKUP(B34,$S$18:$S$68,$T$18:$T$68)</f>
@@ -14765,11 +14765,11 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="21">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C35" s="22">
         <f>_xlfn.XLOOKUP(B35,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>166</v>
@@ -14797,11 +14797,11 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C36" s="22">
         <f>_xlfn.XLOOKUP(B36,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>167</v>
@@ -14825,11 +14825,11 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="21">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C37" s="22">
         <f>_xlfn.XLOOKUP(B37,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>168</v>
@@ -14857,7 +14857,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="21">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C38" s="22">
         <f>_xlfn.XLOOKUP(B38,$S$18:$S$68,$T$18:$T$68)</f>
@@ -14887,11 +14887,11 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="21">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" s="22">
         <f>_xlfn.XLOOKUP(B39,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>170</v>
@@ -14923,11 +14923,11 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="21">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C40" s="22">
         <f>_xlfn.XLOOKUP(B40,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>171</v>
@@ -14955,11 +14955,11 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C41" s="22">
         <f>_xlfn.XLOOKUP(B41,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>172</v>
@@ -14985,11 +14985,11 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="21">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C42" s="22">
         <f>_xlfn.XLOOKUP(B42,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>173</v>
@@ -15017,11 +15017,11 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="21">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C43" s="22">
         <f>_xlfn.XLOOKUP(B43,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>174</v>
@@ -15059,11 +15059,11 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="21">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C44" s="22">
         <f>_xlfn.XLOOKUP(B44,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>175</v>
@@ -15101,11 +15101,11 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="21">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="22">
         <f>_xlfn.XLOOKUP(B45,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>176</v>
@@ -15135,11 +15135,11 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="21">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C46" s="22">
         <f>_xlfn.XLOOKUP(B46,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>177</v>
@@ -15167,11 +15167,11 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="21">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C47" s="22">
         <f>_xlfn.XLOOKUP(B47,$S$18:$S$68,$T$18:$T$68)</f>
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>178</v>
@@ -15421,7 +15421,7 @@
   </sheetData>
   <autoFilter ref="B20:C47" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:C47">
-      <sortCondition ref="C20:C47"/>
+      <sortCondition ref="B20:B47"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="H18:O50">

--- a/Additional Materials.xlsx
+++ b/Additional Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5780" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F3C574D-0EAE-4A87-98FA-7A2C0562E08B}"/>
+  <xr:revisionPtr revIDLastSave="5783" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C5A4B63-0BAA-4A8A-B1EA-76BC417CE152}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15360" windowHeight="10530" firstSheet="2" activeTab="2" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15360" windowHeight="10530" firstSheet="2" activeTab="6" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2208" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1392">
   <si>
     <t>Main</t>
   </si>
@@ -4329,6 +4329,12 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;1, .5 and 1 mark available for these lines alone</t>
+  </si>
+  <si>
+    <t>Bear</t>
+  </si>
+  <si>
+    <t>identify when control was obtained</t>
   </si>
 </sst>
 </file>
@@ -4807,12 +4813,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -4825,6 +4825,12 @@
     </xf>
     <xf numFmtId="13" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6464,10 +6470,10 @@
       <c r="G53" s="81"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C57" s="95" t="s">
+      <c r="C57" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="96"/>
+      <c r="D57" s="103"/>
       <c r="E57" s="82" t="s">
         <v>1173</v>
       </c>
@@ -11111,19 +11117,19 @@
       <c r="B24" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="95">
         <f>+D64*1.5/5</f>
         <v>63.333333333333329</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="97">
+      <c r="C25" s="95">
         <f>-D65*1000/G67</f>
         <v>-13.548387096774194</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="97">
+      <c r="C26" s="95">
         <f>-D66*1000/(F66*C70)</f>
         <v>-4.7619047619047619</v>
       </c>
@@ -12658,7 +12664,7 @@
       <c r="B25" s="1" t="s">
         <v>1308</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="95">
         <v>4000</v>
       </c>
     </row>
@@ -12674,7 +12680,7 @@
       <c r="B27" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="C27" s="97">
+      <c r="C27" s="95">
         <f>+C25*C26</f>
         <v>4200</v>
       </c>
@@ -12683,7 +12689,7 @@
       <c r="B28" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="95">
         <f>+C25/C8*F16</f>
         <v>4249.1839999999993</v>
       </c>
@@ -12692,7 +12698,7 @@
       <c r="B29" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="C29" s="97">
+      <c r="C29" s="95">
         <f>+C27-C28</f>
         <v>-49.183999999999287</v>
       </c>
@@ -12701,18 +12707,18 @@
       <c r="B32" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="95">
         <f>+C28</f>
         <v>4249.1839999999993</v>
       </c>
-      <c r="F32" s="97"/>
+      <c r="F32" s="95"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97">
+      <c r="E33" s="95"/>
+      <c r="F33" s="95">
         <f>-C29</f>
         <v>49.183999999999287</v>
       </c>
@@ -12721,8 +12727,8 @@
       <c r="C34" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95">
         <f>+C27</f>
         <v>4200</v>
       </c>
@@ -12731,8 +12737,8 @@
       <c r="B35" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="94" t="s">
@@ -13160,27 +13166,27 @@
       <c r="B111" s="3">
         <v>43830</v>
       </c>
-      <c r="C111" s="97">
+      <c r="C111" s="95">
         <f>+C101</f>
         <v>2000</v>
       </c>
-      <c r="D111" s="97">
+      <c r="D111" s="95">
         <f>+C111*$C$105</f>
         <v>90</v>
       </c>
-      <c r="E111" s="97">
+      <c r="E111" s="95">
         <v>-90</v>
       </c>
-      <c r="F111" s="97">
+      <c r="F111" s="95">
         <f>SUM(C111:E111)</f>
         <v>2000</v>
       </c>
-      <c r="G111" s="97">
+      <c r="G111" s="95">
         <v>10</v>
       </c>
-      <c r="H111" s="97"/>
+      <c r="H111" s="95"/>
       <c r="I111" s="4"/>
-      <c r="J111" s="97">
+      <c r="J111" s="95">
         <f>+G111*I111</f>
         <v>0</v>
       </c>
@@ -13189,32 +13195,32 @@
       <c r="B112" s="3">
         <v>44196</v>
       </c>
-      <c r="C112" s="97">
+      <c r="C112" s="95">
         <f>+F111</f>
         <v>2000</v>
       </c>
-      <c r="D112" s="97">
+      <c r="D112" s="95">
         <f>+C112*$C$105</f>
         <v>90</v>
       </c>
-      <c r="E112" s="97">
+      <c r="E112" s="95">
         <v>-90</v>
       </c>
-      <c r="F112" s="97">
+      <c r="F112" s="95">
         <f>SUM(C112:E112)</f>
         <v>2000</v>
       </c>
-      <c r="G112" s="97">
+      <c r="G112" s="95">
         <v>34</v>
       </c>
-      <c r="H112" s="97">
+      <c r="H112" s="95">
         <f>+G112/(1+$C$105)^0</f>
         <v>34</v>
       </c>
       <c r="I112" s="4">
         <v>0.5</v>
       </c>
-      <c r="J112" s="97">
+      <c r="J112" s="95">
         <v>0</v>
       </c>
     </row>
@@ -13222,38 +13228,38 @@
       <c r="B113" s="3">
         <v>44561</v>
       </c>
-      <c r="C113" s="97">
+      <c r="C113" s="95">
         <f>+F112</f>
         <v>2000</v>
       </c>
-      <c r="D113" s="97">
+      <c r="D113" s="95">
         <f>+C113*$C$105</f>
         <v>90</v>
       </c>
-      <c r="E113" s="97">
+      <c r="E113" s="95">
         <v>-2090</v>
       </c>
-      <c r="F113" s="97">
+      <c r="F113" s="95">
         <f>SUM(C113:E113)</f>
         <v>0</v>
       </c>
-      <c r="G113" s="97">
+      <c r="G113" s="95">
         <v>34</v>
       </c>
-      <c r="H113" s="97">
+      <c r="H113" s="95">
         <f>+G113/(1+$C$105)^1</f>
         <v>32.535885167464116</v>
       </c>
       <c r="I113" s="4">
         <v>0.5</v>
       </c>
-      <c r="J113" s="99">
+      <c r="J113" s="97">
         <f>+H113*I113</f>
         <v>16.267942583732058</v>
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="J114" s="97">
+      <c r="J114" s="95">
         <f>SUM(J111:J113)</f>
         <v>16.267942583732058</v>
       </c>
@@ -13262,7 +13268,7 @@
       <c r="B115" s="1" t="s">
         <v>1361</v>
       </c>
-      <c r="J115" s="97">
+      <c r="J115" s="95">
         <v>10</v>
       </c>
     </row>
@@ -13270,7 +13276,7 @@
       <c r="B116" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="J116" s="98">
+      <c r="J116" s="96">
         <f>+J114-J115</f>
         <v>6.2679425837320579</v>
       </c>
@@ -13280,18 +13286,18 @@
       <c r="B118" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="97">
+      <c r="E118" s="95">
         <f>+J116</f>
         <v>6.2679425837320579</v>
       </c>
-      <c r="F118" s="97"/>
+      <c r="F118" s="95"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="E119" s="97"/>
-      <c r="F119" s="97">
+      <c r="E119" s="95"/>
+      <c r="F119" s="95">
         <f>+J116</f>
         <v>6.2679425837320579</v>
       </c>
@@ -13305,7 +13311,7 @@
       <c r="B122" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="D122" s="97">
+      <c r="D122" s="95">
         <f>+C113</f>
         <v>2000</v>
       </c>
@@ -13314,7 +13320,7 @@
       <c r="B123" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="D123" s="97">
+      <c r="D123" s="95">
         <f>-J113</f>
         <v>-16.267942583732058</v>
       </c>
@@ -13323,7 +13329,7 @@
       <c r="B124" s="1" t="s">
         <v>1365</v>
       </c>
-      <c r="D124" s="98">
+      <c r="D124" s="96">
         <f>SUM(D122:D123)</f>
         <v>1983.7320574162679</v>
       </c>
@@ -16010,10 +16016,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="96"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="82" t="s">
         <v>1173</v>
       </c>
@@ -16757,8 +16763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16786,7 +16792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="102" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="100" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>736</v>
       </c>
@@ -16798,22 +16804,22 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="19"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101" t="s">
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99" t="s">
         <v>738</v>
       </c>
-      <c r="U2" s="101" t="s">
+      <c r="U2" s="99" t="s">
         <v>737</v>
       </c>
     </row>
@@ -16907,7 +16913,7 @@
       <c r="A5" s="36">
         <v>37</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="98" t="s">
         <v>1381</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -17566,7 +17572,7 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="103">
+      <c r="B20" s="101">
         <f>+COUNTA($B$3:B19)/51</f>
         <v>0.31372549019607843</v>
       </c>
@@ -20850,18 +20856,30 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>1391</v>
       </c>
     </row>
   </sheetData>

--- a/Additional Materials.xlsx
+++ b/Additional Materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7569" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31205641-BA72-41D2-9B2F-CBA359759E6A}"/>
+  <xr:revisionPtr revIDLastSave="7643" documentId="1_{2C476DAE-516C-48DE-8BFB-07AC045FC549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA53EFFB-9580-452A-9652-A814D57CFEB9}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="12420" windowHeight="11385" firstSheet="18" activeTab="22" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{1C089FCC-7092-42F7-B3CE-D42C9E012232}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="17" state="hidden" r:id="rId1"/>
@@ -44,7 +44,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'AMQ14'!$A$1:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Main!$B$35:$C$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Main!$A$2:$J$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -6222,7 +6222,7 @@
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -6531,6 +6531,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -15578,9 +15581,7 @@
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -18515,9 +18516,7 @@
   <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -24726,10 +24725,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:X75"/>
+  <dimension ref="A1:Y75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24743,7 +24742,7 @@
     <col min="21" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
@@ -24752,7 +24751,7 @@
       <c r="I1" s="23"/>
       <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="1:24" s="94" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="139" t="s">
         <v>733</v>
       </c>
@@ -24786,7 +24785,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="139">
         <v>7</v>
       </c>
@@ -24835,7 +24834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="139">
         <v>8</v>
       </c>
@@ -24878,7 +24877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="139">
         <v>37</v>
       </c>
@@ -24932,7 +24931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="139">
         <v>25</v>
       </c>
@@ -24982,7 +24981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="36" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="139">
         <v>11</v>
       </c>
@@ -25017,7 +25016,7 @@
       <c r="R7" s="20"/>
       <c r="S7" s="20"/>
       <c r="T7" s="35">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="U7" s="21"/>
       <c r="V7" s="21" t="str">
@@ -25031,7 +25030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="139">
         <v>15</v>
       </c>
@@ -25088,7 +25087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="139">
         <v>12</v>
       </c>
@@ -25133,7 +25132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="139">
         <v>8</v>
       </c>
@@ -25176,7 +25175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="139">
         <v>19</v>
       </c>
@@ -25219,8 +25218,9 @@
       <c r="X11" s="21">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y11" s="177"/>
+    </row>
+    <row r="12" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="139">
         <v>19</v>
       </c>
@@ -25265,7 +25265,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="139">
         <v>3</v>
       </c>
@@ -25309,24 +25309,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="139">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14" s="146" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>162</v>
+        <v>1530</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>173</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>177</v>
       </c>
       <c r="K14" s="21" t="s">
         <v>159</v>
@@ -25360,27 +25363,25 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="139">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="146" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="36" t="str">
-        <f>+K4</f>
-        <v>1: Accounting principles and the Conceptual Framework</v>
-      </c>
-      <c r="D15" s="36" t="str">
-        <f>+K7</f>
-        <v>4: Discontinued operations</v>
-      </c>
-      <c r="E15" s="36" t="str">
-        <f>+K15</f>
-        <v>12: Financial instruments: Presentation, classification and measurement</v>
-      </c>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
+        <v>1256</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="K15" s="21" t="s">
         <v>160</v>
       </c>
@@ -25413,28 +25414,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="139">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B16" s="146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="36" t="str">
-        <f>+K9</f>
-        <v>6: Non-current assets: Investment property</v>
+        <f>+K5</f>
+        <v>2: Presentation of financial statements</v>
       </c>
       <c r="D16" s="36" t="str">
-        <f>+K11</f>
-        <v>8: Non-current assets: Leases</v>
+        <f>+K8</f>
+        <v>5: Non-current assets: Property, plant and equipment</v>
       </c>
       <c r="E16" s="36" t="str">
-        <f>+K12</f>
-        <v>9: Non-current assets: Intangible assets</v>
-      </c>
-      <c r="F16" s="36" t="str">
-        <f>+K14</f>
-        <v>11: Inventories</v>
+        <f>+K16</f>
+        <v>13: Financial instruments: Impairment of financial assets</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -25466,20 +25463,28 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="139">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B17" s="146" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="36" t="str">
+        <f>+K10</f>
+        <v>7: Non-current assets: Held for sale</v>
+      </c>
+      <c r="D17" s="36" t="str">
+        <f>+K12</f>
+        <v>9: Non-current assets: Intangible assets</v>
+      </c>
+      <c r="E17" s="36" t="str">
+        <f>+K13</f>
+        <v>10: Non-current assets: Impairment</v>
+      </c>
+      <c r="F17" s="36" t="str">
+        <f>+K15</f>
+        <v>12: Financial instruments: Presentation, classification and measurement</v>
+      </c>
       <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="21" t="s">
         <v>162</v>
@@ -25511,22 +25516,19 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="139">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B18" s="146" t="s">
-        <v>614</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>158</v>
-      </c>
+        <v>1455</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="36"/>
       <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="21" t="s">
@@ -25565,19 +25567,22 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="139">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B19" s="146" t="s">
-        <v>1472</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+        <v>614</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>158</v>
+      </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="21" t="s">
@@ -25608,26 +25613,18 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="139">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B20" s="146" t="s">
-        <v>1530</v>
+        <v>1472</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>177</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -26687,6 +26684,11 @@
       <c r="B75" s="21"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J20" xr:uid="{8D079A40-BABB-4643-87FC-8779711C6A6E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J20">
+      <sortCondition ref="B2:B20"/>
+    </sortState>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B35:B61">
     <sortCondition ref="B61"/>
   </sortState>
@@ -26696,12 +26698,12 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B16" location="'AMQ38'!A1" display="AMQ38" xr:uid="{928D82A5-3309-4995-B6A7-88EC39619F35}"/>
-    <hyperlink ref="B15" location="'AMQ35'!A1" display="AMQ35" xr:uid="{D0B5A279-5AF6-41C2-8FD2-739073316067}"/>
+    <hyperlink ref="B17" location="'AMQ38'!A1" display="AMQ38" xr:uid="{928D82A5-3309-4995-B6A7-88EC39619F35}"/>
+    <hyperlink ref="B16" location="'AMQ35'!A1" display="AMQ35" xr:uid="{D0B5A279-5AF6-41C2-8FD2-739073316067}"/>
     <hyperlink ref="B8" location="'AMQ17'!A1" display="AMQ17" xr:uid="{DD7CCBAE-0DAB-4EAC-8126-C9CE9446851D}"/>
     <hyperlink ref="B9" location="'AMQ18'!A1" display="AMQ18" xr:uid="{B8F839A4-68F6-41AB-8B12-16E2B7992490}"/>
     <hyperlink ref="B3" location="'AMQ01'!A1" display="AMQ01" xr:uid="{CBB801F7-257B-4A2A-AA4C-1E786EEFB4C4}"/>
-    <hyperlink ref="B18" location="'AMQ42'!A1" display="AMQ42" xr:uid="{DBCFF730-3561-4EBD-8FDA-C4BB5F21BFF8}"/>
+    <hyperlink ref="B19" location="'AMQ42'!A1" display="AMQ42" xr:uid="{DBCFF730-3561-4EBD-8FDA-C4BB5F21BFF8}"/>
     <hyperlink ref="B4" location="'AMQ03'!A1" display="AMQ03" xr:uid="{B6F96396-C5B2-48DB-A281-8539AB8C4095}"/>
     <hyperlink ref="B10" location="'AMQ20'!A1" display="AMQ20" xr:uid="{CF7A5709-CC6E-48C6-9FB2-D1B0097FFA6D}"/>
     <hyperlink ref="B11" location="'AMQ22'!A1" display="AMQ22" xr:uid="{D10019E2-0E48-48D5-98F5-ABBFB9AD4436}"/>
@@ -26709,15 +26711,15 @@
     <hyperlink ref="B12" location="'AMQ23'!A1" display="AMQ23" xr:uid="{369432A2-4B2F-4E72-8BEA-A5D9CCAF03E6}"/>
     <hyperlink ref="B6" location="'AMQ10'!A1" display="AMQ10" xr:uid="{3DD089A5-6CA8-4A11-9352-BE4C0002F350}"/>
     <hyperlink ref="B34" location="'AMQ07'!A1" display="AMQ07" xr:uid="{CA48C6CC-3611-478B-A368-56E37414FFC9}"/>
-    <hyperlink ref="B14" location="'AMQ34'!A1" display="AMQ34" xr:uid="{DFF25140-5AE5-4F23-B074-E9DB094444BD}"/>
+    <hyperlink ref="B15" location="'AMQ34'!A1" display="AMQ34" xr:uid="{DFF25140-5AE5-4F23-B074-E9DB094444BD}"/>
     <hyperlink ref="B7" location="'AMQ15'!A1" display="AMQ15" xr:uid="{901E18B6-125B-415E-B574-ACA9B4B8F0F2}"/>
     <hyperlink ref="B5" location="'AMQ06'!A1" display="AMQ06" xr:uid="{C898F3B4-2CCB-48B5-BA4D-5DCC974DB23A}"/>
     <hyperlink ref="B33" location="'AMQ14'!A1" display="AMQ14" xr:uid="{125496FE-645B-480E-B4F1-42C35D3D9ED3}"/>
     <hyperlink ref="B13" location="'AMQ26'!A1" display="AMQ26" xr:uid="{D3821FC6-C9B2-461E-8A27-0516661B3CC8}"/>
-    <hyperlink ref="B17" location="'AMQ40'!A1" display="AMQ40" xr:uid="{E9706315-901D-4516-BA6F-4012282DB255}"/>
-    <hyperlink ref="B19" location="'AMQ45'!A1" display="AMQ45" xr:uid="{402DB6CF-2629-4077-9D1F-F9C66B6AAD60}"/>
+    <hyperlink ref="B18" location="'AMQ40'!A1" display="AMQ40" xr:uid="{E9706315-901D-4516-BA6F-4012282DB255}"/>
+    <hyperlink ref="B20" location="'AMQ45'!A1" display="AMQ45" xr:uid="{402DB6CF-2629-4077-9D1F-F9C66B6AAD60}"/>
     <hyperlink ref="B31" location="'AMQ11'!A1" display="AMQ11" xr:uid="{17FA455A-2CFF-4372-B07F-79CBAAF774A3}"/>
-    <hyperlink ref="B20" location="'AMQ33'!A1" display="AMQ33" xr:uid="{C9491F6B-6704-457F-8588-01B0EF3975BE}"/>
+    <hyperlink ref="B14" location="'AMQ33'!A1" display="AMQ33" xr:uid="{C9491F6B-6704-457F-8588-01B0EF3975BE}"/>
     <hyperlink ref="B28" location="'AMQ44'!A1" display="AMQ44" xr:uid="{630C2561-2A2D-40F8-8469-07DF0B4042E3}"/>
     <hyperlink ref="B29" location="'AMQ37'!A1" display="AMQ37" xr:uid="{973A5E4D-2B20-4FF8-BBF9-C260119555C9}"/>
   </hyperlinks>
